--- a/Unity/LubanTools/DesignerConfigs/Datas/__enums__.xlsx
+++ b/Unity/LubanTools/DesignerConfigs/Datas/__enums__.xlsx
@@ -83,7 +83,7 @@
     <t>注释</t>
   </si>
   <si>
-    <t>GameMain.Enum.ETestQuality</t>
+    <t>Custom.Enum.ETestQuality</t>
   </si>
   <si>
     <t>A</t>
@@ -122,7 +122,7 @@
     <t>最差品质</t>
   </si>
   <si>
-    <t>GameMain.Enum.AccessFlag</t>
+    <t>Custom.Enum.AccessFlag</t>
   </si>
   <si>
     <t>WRITE</t>
@@ -153,14 +153,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -618,148 +611,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1092,7 +1085,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
